--- a/Question/GoldMan_Sachs.xlsx
+++ b/Question/GoldMan_Sachs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B79A8FB-C454-4F04-BFE4-74BC9D76A1BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07141247-0498-42F9-92DC-7349B66205C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E5A9AEF-917B-4BDC-86B6-F9D52DEAF8FC}"/>
   </bookViews>
@@ -1170,7 +1170,7 @@
   <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1261,7 +1261,7 @@
       <c r="C6" t="s">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1275,7 +1275,7 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
       <c r="C8" t="s">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="4" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       <c r="C9" t="s">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="4" t="s">
         <v>134</v>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       <c r="C11" t="s">
         <v>1</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>172</v>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="4" t="s">
         <v>206</v>
       </c>
     </row>
@@ -1373,7 +1373,7 @@
       <c r="C14" t="s">
         <v>1</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       <c r="C15" t="s">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="4" t="s">
         <v>208</v>
       </c>
     </row>

--- a/Question/GoldMan_Sachs.xlsx
+++ b/Question/GoldMan_Sachs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07141247-0498-42F9-92DC-7349B66205C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691D7DF-4E90-4A18-9917-DB057297EBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E5A9AEF-917B-4BDC-86B6-F9D52DEAF8FC}"/>
   </bookViews>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125B9CA3-60A7-4762-8338-B931BBABFDC3}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1401,7 +1401,7 @@
       <c r="C16" t="s">
         <v>7</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="4" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="4" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1429,7 +1429,7 @@
       <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="4" t="s">
         <v>160</v>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       <c r="C19" t="s">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="4" t="s">
         <v>34</v>
       </c>
     </row>

--- a/Question/GoldMan_Sachs.xlsx
+++ b/Question/GoldMan_Sachs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\omkar\Desktop\Python_Projects\FAANG\Question\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1691D7DF-4E90-4A18-9917-DB057297EBC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8B0718-630F-4F0A-ADA2-CA983422D224}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E5A9AEF-917B-4BDC-86B6-F9D52DEAF8FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2400" windowHeight="585" xr2:uid="{0E5A9AEF-917B-4BDC-86B6-F9D52DEAF8FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1169,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{125B9CA3-60A7-4762-8338-B931BBABFDC3}">
   <dimension ref="A1:D113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
